--- a/flows/EVMT_fund_flow_data.xlsx
+++ b/flows/EVMT_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5055,6 +5055,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>-0.8109499999999999</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
